--- a/会鸽业务系统全景图/会鸽定位业务数据库表0926.xlsx
+++ b/会鸽业务系统全景图/会鸽定位业务数据库表0926.xlsx
@@ -4413,8 +4413,8 @@
   <sheetPr/>
   <dimension ref="A1:F302"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="B74" sqref="B74:F74"/>
+    <sheetView tabSelected="1" topLeftCell="A163" workbookViewId="0">
+      <selection activeCell="B175" sqref="B175:F175"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -9424,8 +9424,8 @@
   <sheetPr/>
   <dimension ref="A1:F240"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B196" sqref="B196:F196"/>
+    <sheetView topLeftCell="A235" workbookViewId="0">
+      <selection activeCell="F242" sqref="F242"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>

--- a/会鸽业务系统全景图/会鸽定位业务数据库表0926.xlsx
+++ b/会鸽业务系统全景图/会鸽定位业务数据库表0926.xlsx
@@ -2333,12 +2333,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="0.00_ "/>
-    <numFmt numFmtId="179" formatCode="0_ "/>
+    <numFmt numFmtId="176" formatCode="0.00_ "/>
+    <numFmt numFmtId="177" formatCode="0_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="179" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -2356,9 +2356,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2366,30 +2372,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2404,21 +2394,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2438,6 +2422,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -2448,15 +2448,14 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2470,9 +2469,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2483,20 +2497,6 @@
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -2533,151 +2533,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2695,7 +2551,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2707,7 +2707,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2784,47 +2784,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2847,17 +2811,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2881,157 +2851,187 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="35" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
   <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -3042,12 +3042,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -3069,7 +3069,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -4413,8 +4413,8 @@
   <sheetPr/>
   <dimension ref="A1:F302"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A163" workbookViewId="0">
-      <selection activeCell="B175" sqref="B175:F175"/>
+    <sheetView tabSelected="1" topLeftCell="A63" workbookViewId="0">
+      <selection activeCell="B75" sqref="B75:F75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>

--- a/会鸽业务系统全景图/会鸽定位业务数据库表0926.xlsx
+++ b/会鸽业务系统全景图/会鸽定位业务数据库表0926.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20385" windowHeight="8370" activeTab="2"/>
+    <workbookView windowWidth="20385" windowHeight="8370" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="总览表" sheetId="1" r:id="rId1"/>
@@ -2335,10 +2335,10 @@
   <numFmts count="6">
     <numFmt numFmtId="176" formatCode="0.00_ "/>
     <numFmt numFmtId="177" formatCode="0_ "/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="179" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -2364,6 +2364,21 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -2372,9 +2387,71 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2392,31 +2469,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2438,65 +2492,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -2533,13 +2533,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2551,43 +2677,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2599,115 +2701,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2787,8 +2787,34 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2808,11 +2834,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2835,49 +2867,17 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2887,28 +2887,28 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2917,115 +2917,115 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="35" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -4413,8 +4413,8 @@
   <sheetPr/>
   <dimension ref="A1:F302"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A63" workbookViewId="0">
-      <selection activeCell="B75" sqref="B75:F75"/>
+    <sheetView topLeftCell="A81" workbookViewId="0">
+      <selection activeCell="B90" sqref="B90:F90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -9424,8 +9424,8 @@
   <sheetPr/>
   <dimension ref="A1:F240"/>
   <sheetViews>
-    <sheetView topLeftCell="A235" workbookViewId="0">
-      <selection activeCell="F242" sqref="F242"/>
+    <sheetView tabSelected="1" topLeftCell="A89" workbookViewId="0">
+      <selection activeCell="B94" sqref="B94:F94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>

--- a/会鸽业务系统全景图/会鸽定位业务数据库表0926.xlsx
+++ b/会鸽业务系统全景图/会鸽定位业务数据库表0926.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20385" windowHeight="8370" activeTab="3"/>
+    <workbookView windowWidth="20385" windowHeight="8370" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="总览表" sheetId="1" r:id="rId1"/>
@@ -2333,12 +2333,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
-    <numFmt numFmtId="176" formatCode="0.00_ "/>
-    <numFmt numFmtId="177" formatCode="0_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="0.00_ "/>
+    <numFmt numFmtId="178" formatCode="0_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -2370,11 +2370,41 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="15"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2385,18 +2415,57 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2417,7 +2486,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2425,76 +2494,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2533,13 +2533,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2557,7 +2683,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2569,145 +2707,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2784,41 +2784,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -2877,7 +2842,42 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2887,151 +2887,151 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
   <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -3042,12 +3042,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -3069,7 +3069,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -4413,8 +4413,8 @@
   <sheetPr/>
   <dimension ref="A1:F302"/>
   <sheetViews>
-    <sheetView topLeftCell="A81" workbookViewId="0">
-      <selection activeCell="B90" sqref="B90:F90"/>
+    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="B82" sqref="B82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -9424,7 +9424,7 @@
   <sheetPr/>
   <dimension ref="A1:F240"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A89" workbookViewId="0">
+    <sheetView topLeftCell="A197" workbookViewId="0">
       <selection activeCell="B94" sqref="B94:F94"/>
     </sheetView>
   </sheetViews>
